--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -114,15 +114,6 @@
     <x:t>Abdelrahman Ahmed Hasan Ahmed Bakr</x:t>
   </x:si>
   <x:si>
-    <x:t>1230051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman ahmed mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230075</x:t>
   </x:si>
   <x:si>
@@ -130,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Essam Ali shady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمود عبد الرؤف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
   </x:si>
   <x:si>
     <x:t>4240038</x:t>
@@ -1104,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4381296296</x:v>
+        <x:v>45907.4191667014</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4191667014</x:v>
+        <x:v>45907.4145161227</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -735,7 +735,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -816,7 +816,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6649468403</x:v>
+        <x:v>45927.4299196759</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -1648,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4408876968</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -1424,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4188102662</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Kamal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد وليد محمد جاد الكريم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed waleed</x:t>
   </x:si>
   <x:si>
     <x:t>1230112</x:t>
@@ -425,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1360,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4300540509</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.4165546296</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4165546296</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4150447917</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4150447917</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.722759294</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4146331366</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4146331366</x:v>
+        <x:v>45907.4149444792</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1735,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4149444792</x:v>
+        <x:v>45907.4185138542</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1761,38 +1752,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45907.4185138542</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
   </x:si>
   <x:si>
     <x:t>1230112</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45931.3163642014</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.9745405093</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4165546296</x:v>
+        <x:v>45928.9745405093</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.415655706</x:v>
+        <x:v>45907.4165546296</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4207747685</x:v>
+        <x:v>45907.415655706</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4214269676</x:v>
+        <x:v>45907.4207747685</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4265503125</x:v>
+        <x:v>45907.4214269676</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4150447917</x:v>
+        <x:v>45907.4265503125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.722759294</x:v>
+        <x:v>45907.4150447917</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.722759294</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4146331366</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4149444792</x:v>
+        <x:v>45907.4146331366</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4185138542</x:v>
+        <x:v>45907.4149444792</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.4185138542</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -84,7 +84,7 @@
     <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
   </x:si>
   <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+    <x:t>Adham Medhat Abdelmoaz Elazab Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1230166</x:t>

--- a/downloaded_files/MDPS355_Lecture-35678.xlsx
+++ b/downloaded_files/MDPS355_Lecture-35678.xlsx
@@ -99,10 +99,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1220064</x:t>
